--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value379.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value379.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.10043331585342</v>
+        <v>1.425663113594055</v>
       </c>
       <c r="B1">
-        <v>1.908895017370709</v>
+        <v>3.625338792800903</v>
       </c>
       <c r="C1">
-        <v>2.243979796626803</v>
+        <v>3.038676261901855</v>
       </c>
       <c r="D1">
-        <v>2.542480232832364</v>
+        <v>2.018335819244385</v>
       </c>
       <c r="E1">
-        <v>1.18672575498853</v>
+        <v>1.166325211524963</v>
       </c>
     </row>
   </sheetData>
